--- a/medicine/Enfance/Fantastique_Maître_Renard/Fantastique_Maître_Renard.xlsx
+++ b/medicine/Enfance/Fantastique_Maître_Renard/Fantastique_Maître_Renard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fantastique_Ma%C3%AEtre_Renard</t>
+          <t>Fantastique_Maître_Renard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fantastique Maître Renard (titre original : Fantastic Mr Fox) est un livre pour enfants écrit par Roald Dahl en 1970.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fantastique_Ma%C3%AEtre_Renard</t>
+          <t>Fantastique_Maître_Renard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Trois fermiers nommés Boggis, Bunce et Bean essaient de tuer le renard qui vient rôder autour de chez eux à la tombée de la nuit pour leur voler poulets, canards, oies et dindes. 
 Bean a repéré le terrier du renard et les trois fermiers lui tendent une embuscade. Ils déclenchent la fusillade lorsque le renard sort de son repaire la nuit tombée. Le renard leur échappe une fois de plus, non sans mal car les coups de fusil ont coupé sa queue. Pris au piège par les fermiers et leurs employés et manquant de mourir de faim au bout de trois jours, le renard et sa famille creusent un tunnel jusqu'au poulailler de Boggis et volent quelques poulets...
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fantastique_Ma%C3%AEtre_Renard</t>
+          <t>Fantastique_Maître_Renard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le livre a été adapté par Wes Anderson en 2009 dans le film d’animation Fantastic Mr. Fox.
 </t>
